--- a/Class_VIII/Assamese/Formative Assessment -I_class_VIII.xlsx
+++ b/Class_VIII/Assamese/Formative Assessment -I_class_VIII.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="34">
   <si>
     <t xml:space="preserve">Academic session</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anuska Hazarika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitop jyoti Sarma</t>
   </si>
 </sst>
 </file>
@@ -194,12 +197,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,23 +211,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF292929"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -240,58 +222,56 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1219,13 +1199,314 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
